--- a/Simulations/RW_CV.xlsx
+++ b/Simulations/RW_CV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23400" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -2047,11 +2047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1266794720"/>
-        <c:axId val="-1266790880"/>
+        <c:axId val="-1532400"/>
+        <c:axId val="-1528368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1266794720"/>
+        <c:axId val="-1532400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2127,17 +2127,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266790880"/>
+        <c:crossAx val="-1528368"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1266790880"/>
+        <c:axId val="-1528368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
+          <c:max val="1.5"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2210,7 +2210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266794720"/>
+        <c:crossAx val="-1532400"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2267,15 +2267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BR3" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
